--- a/excel/roleInfo.xlsx
+++ b/excel/roleInfo.xlsx
@@ -395,7 +395,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -430,7 +430,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -639,11 +639,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H10"/>
+  <dimension ref="A2:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -832,6 +832,14 @@
         <v>29</v>
       </c>
     </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>55</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/roleInfo.xlsx
+++ b/excel/roleInfo.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10350"/>
   </bookViews>
   <sheets>
-    <sheet name="roleInfo" sheetId="1" r:id="rId1"/>
+    <sheet name="RoleInfo" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -643,7 +643,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
